--- a/tests/artifacts/Jarvis_Benchmark_Report_2026-02-11.xlsx
+++ b/tests/artifacts/Jarvis_Benchmark_Report_2026-02-11.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="LLM" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="VLM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="STT" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LLM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="VLM" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TTS" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,609 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="79" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Loadout</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Scenario</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Duration (s)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Polish, implicit</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1319457999925362</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Match: 90.6% | [Cze??, nazywam si? Jarbis, jed mog? ci dzisiaj pom?c.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Polish, explicit</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1061812999978429</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Match: 90.6% | [Cze??, nazywam si? Jarbis, jed mog? ci dzisiaj pom?c.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Polish, misleading</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09557800000766292</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Match: 26.4% | [Hi, I'm Rbys and I can help you today.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>French, implicit</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.643681799992919</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Match: 80.0% | [Bonjour, je m'appelle Jarvis, come up here je vous ai dit.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>French, explicit</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1899657000030857</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Match: 74.3% | [Bonjour, je m'appelle Jarvis. Come on, p?che-vous, Zid?.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>French, misleading</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5671869999932824</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Match: 79.3% | [Bonjour, je m'appelle Jarvis, come up here, je vous ai dit.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chinese, implicit</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1085928999964381</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Match: 73.7% | [??,?????,??????????]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chinese, explicit</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0979584999877261</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Match: 73.7% | [??,?????,??????????]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chinese, misleading</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1012577999936184</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Match: 0.0% | [Hello, my name is Jia Wei Si, what can I do for you today?]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>English, implicit</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.09690959998988546</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Match: 100.0% | [Hello, this is a test of Tatterbox TTS.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>English, explicit</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.08875220001209527</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Match: 100.0% | [Hello, this is a test of Tatterbox TTS.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Polish, implicit</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.128060800008825</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Match: 83.8% | [Cze??, nazywam si? Jarbyz, jedmog? ci dzisiaj pom?d.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Polish, explicit</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1053442999982508</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Match: 83.8% | [Cze??, nazywam si? Jarbyz, jedmog? ci dzisiaj pom?d.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Polish, misleading</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3316739000001689</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Match: 17.2% | [Bye, see you soon and I'll see you soon.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>French, implicit</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2303152000094997</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Match: 37.8% | [No jewelry, so my best star beast, come up with a day.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>French, explicit</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.09509080000862014</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Match: 86.0% | [Bonjour, je m'appelle Jarvis, comme un pujouz-vous aider.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>French, misleading</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1613553000061074</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Match: 41.0% | [Don't you worry, so my best job is, come up with a good day.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Chinese, implicit</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.107154500001343</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Match: 81.1% | [??,?????,?????????]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Chinese, explicit</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.09347380000690464</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Match: 81.1% | [??,?????,?????????]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Chinese, misleading</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.09543649999250192</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Match: 0.0% | [Hello, I'm Jjavay Si, I can do what you do today.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>English, implicit</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.09075899999879766</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Match: 96.1% | [Hello, this is a test of Tatarbox TTS.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>English, explicit</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.08831689998623915</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Match: 96.1% | [Hello, this is a test of Tatarbox TTS.]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -701,7 +1306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -718,7 +1323,7 @@
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
     <col width="100" customWidth="1" min="7" max="7"/>
@@ -778,13 +1383,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3601946999988286</v>
+        <v>0.3141078999906313</v>
       </c>
       <c r="E2" t="n">
-        <v>123.8495680156208</v>
+        <v>132.7023137249025</v>
       </c>
       <c r="F2" t="n">
-        <v>24.072265625</v>
+        <v>23.357421875</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -812,13 +1417,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.1601029000012204</v>
+        <v>0.1573896000045352</v>
       </c>
       <c r="E3" t="n">
-        <v>171.3562090733036</v>
+        <v>176.2660307662683</v>
       </c>
       <c r="F3" t="n">
-        <v>24.072265625</v>
+        <v>23.357421875</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -850,13 +1455,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1514924000002793</v>
+        <v>0.1287638000067091</v>
       </c>
       <c r="E4" t="n">
-        <v>139.3436912136447</v>
+        <v>147.2995269902427</v>
       </c>
       <c r="F4" t="n">
-        <v>24.072265625</v>
+        <v>23.357421875</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -886,19 +1491,522 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.027578200002608</v>
+        <v>1.018328899997869</v>
       </c>
       <c r="E5" t="n">
-        <v>39.44337509068225</v>
+        <v>39.67767722195795</v>
       </c>
       <c r="F5" t="n">
-        <v>24.072265625</v>
+        <v>23.357421875</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>Based on the video frames provided, the following types of vehicles are visible:
 - **Car**: A white car is seen driving into the parking lot and then parking.
 - **Bicycle**: A person is seen riding a bicycle across the parking lot.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="70" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Loadout</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Scenario</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Duration (s)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2.412164699999266</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>tts\chatterbox\results\chatterbox-multilingual_standard.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>polish</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.812993800005643</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>tts\chatterbox\results\chatterbox-multilingual_polish.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>french</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2.427869499995722</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>tts\chatterbox\results\chatterbox-multilingual_french.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>chinese</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1.667635799996788</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>tts\chatterbox\results\chatterbox-multilingual_chinese.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>implicit_excited</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3.040368000001763</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>tts\chatterbox\results\chatterbox-multilingual_implicit_excited.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>implicit_serious</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2.119792700003018</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>tts\chatterbox\results\chatterbox-multilingual_implicit_serious.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>implicit_hesitant</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.881308500000159</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>tts\chatterbox\results\chatterbox-multilingual_implicit_hesitant.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>explicit_laugh</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2.48448699999426</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>tts\chatterbox\results\chatterbox-multilingual_explicit_laugh.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>base-qwen30-multi</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>explicit_cough</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4.381154200003948</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>tts\chatterbox\results\chatterbox-multilingual_explicit_cough.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8209425999957602</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>tts\chatterbox\results\chatterbox-turbo_standard.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>polish</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1.692569100006949</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>tts\chatterbox\results\chatterbox-turbo_polish.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>french</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1.006594899998163</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>tts\chatterbox\results\chatterbox-turbo_french.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>chinese</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3.42037629999686</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>tts\chatterbox\results\chatterbox-turbo_chinese.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>implicit_excited</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1.017027199995937</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>tts\chatterbox\results\chatterbox-turbo_implicit_excited.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>implicit_serious</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8841077999968547</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>tts\chatterbox\results\chatterbox-turbo_implicit_serious.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>implicit_hesitant</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1.153406500001438</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>tts\chatterbox\results\chatterbox-turbo_implicit_hesitant.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>explicit_laugh</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1.083149300000514</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>tts\chatterbox\results\chatterbox-turbo_explicit_laugh.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>tiny-gpt20-turbo</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>explicit_cough</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1.316296999997576</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>tts\chatterbox\results\chatterbox-turbo_explicit_cough.wav</t>
         </is>
       </c>
     </row>
